--- a/2023 Philip Hampson/data.xlsx
+++ b/2023 Philip Hampson/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/18_ Estudiantes/uvm_students/2023 Philip Hampson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D950A4D0-B09E-45C7-916F-3971D4AF6A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D950A4D0-B09E-45C7-916F-3971D4AF6A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5585ED2-0EF3-46FE-A9F3-8D548AF7722F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{8800CC25-5671-481D-8518-23FA01F199C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{8800CC25-5671-481D-8518-23FA01F199C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6752" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6752" uniqueCount="470">
   <si>
     <t>Family_genus</t>
   </si>
@@ -1461,6 +1461,12 @@
   </si>
   <si>
     <t>taxa</t>
+  </si>
+  <si>
+    <t>Max_Size</t>
+  </si>
+  <si>
+    <t>Generations_per_year</t>
   </si>
 </sst>
 </file>
@@ -34292,7 +34298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AB0985-19ED-4BD6-B792-89DD3B21C737}">
   <dimension ref="A1:C193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -36433,8 +36439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39617F8C-A697-465F-A597-45D106BD98BE}">
   <dimension ref="A1:G177"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36459,10 +36465,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>468</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -40515,6 +40521,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="15e292b5-2b14-40e1-8578-1301a2c86ba3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100022D5E5D6FCED7408CDFA2C7AC538F5E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="068159367a2ac16751b2c398bbeaa538">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="555ffcdc-eb48-4214-b4d1-17eee62fa1b5" xmlns:ns4="15e292b5-2b14-40e1-8578-1301a2c86ba3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b6bc246f72e1906c4c0b15765719267a" ns3:_="" ns4:_="">
     <xsd:import namespace="555ffcdc-eb48-4214-b4d1-17eee62fa1b5"/>
@@ -40753,14 +40767,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="15e292b5-2b14-40e1-8578-1301a2c86ba3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -40771,6 +40777,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96C4541E-C3B4-47C6-BA06-FCB69B1783D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="15e292b5-2b14-40e1-8578-1301a2c86ba3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F50C47D5-C059-4678-B06B-DD1AD3BEDE06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40789,16 +40805,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96C4541E-C3B4-47C6-BA06-FCB69B1783D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="15e292b5-2b14-40e1-8578-1301a2c86ba3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7825A7D-3EE0-4A00-AF18-9FC794338ADC}">
   <ds:schemaRefs>
